--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,121 @@
         <v>45909.39583333334</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sai ram</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bebarta</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dr. Alice Wong</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45908.45833333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Barik</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Dr. Alice Wong</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45910.4375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Barik</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dr. Alice Wong</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45910.47916666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Barik</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dr. Clara Smith</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45910.39583333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Barik</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dr. Emma Rodriguez</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45910.39583333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,98 @@
         <v>45910.39583333334</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Barik</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Dr. David Johnson</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45910.4375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Namish</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sahu</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Dr. Frank Chen</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45910.375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sai ram</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bebarta</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Dr. Clara Smith</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45910.375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Namish</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sahu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dr. Clara Smith</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45910.4375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
